--- a/data/NL_datapower_plants.xlsx
+++ b/data/NL_datapower_plants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,17 +486,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OCGT</t>
+          <t>Coal PSC</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1103</v>
+        <v>790</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3773708068902992</v>
+        <v>0.46</v>
       </c>
       <c r="F2" t="n">
         <v>0.9</v>
@@ -524,17 +524,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CCGT_CHP_backpressure_DH</t>
+          <t>Coal PSC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1992</v>
+        <v>2640</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4758333333333333</v>
+        <v>0.46</v>
       </c>
       <c r="F3" t="n">
         <v>0.9</v>
@@ -562,17 +562,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biomass_CHP_wood_pellets_DH</t>
+          <t>Coal PSC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>790</v>
+        <v>630</v>
       </c>
       <c r="E4" t="n">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="F4" t="n">
         <v>0.9</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Biomass_CHP_wood_pellets_DH</t>
+          <t>Coal PSC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>2642</v>
+        <v>631</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4598788796366389</v>
+        <v>0.42</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8998804005544436</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -638,17 +638,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Biomass_CHP_wood_pellets_DH</t>
+          <t>CCGT</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>630</v>
+        <v>341</v>
       </c>
       <c r="E6" t="n">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
       <c r="F6" t="n">
         <v>0.9</v>
@@ -676,20 +676,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Biomass_CHP_wood_pellets_DH</t>
+          <t>CCGT</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>631</v>
+        <v>800</v>
       </c>
       <c r="E7" t="n">
-        <v>0.42</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E8" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="F8" t="n">
         <v>0.9</v>
@@ -756,13 +756,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>1117</v>
+        <v>420</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5394717994628468</v>
+        <v>0.59</v>
       </c>
       <c r="F9" t="n">
         <v>0.9</v>
@@ -794,16 +794,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1141</v>
+        <v>872</v>
       </c>
       <c r="E10" t="n">
-        <v>0.548045574057844</v>
+        <v>0.5849885321100917</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -832,16 +832,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>1294</v>
+        <v>420</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5832457496136012</v>
+        <v>0.59</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -870,16 +870,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>1292</v>
+        <v>426</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5866176470588235</v>
+        <v>0.58</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -911,10 +911,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>1721</v>
+        <v>1295</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5860081348053457</v>
+        <v>0.587984555984556</v>
       </c>
       <c r="F13" t="n">
         <v>0.9</v>
@@ -984,13 +984,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>1268</v>
+        <v>245</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5180678233438486</v>
+        <v>0.51</v>
       </c>
       <c r="F15" t="n">
         <v>0.9</v>
@@ -1018,20 +1018,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hydropower_reservoir_medium</t>
+          <t>CCGT</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>40.419</v>
+        <v>682</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1056,20 +1056,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
+          <t>CCGT</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-4</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>3930.108</v>
+        <v>341</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1094,14 +1094,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
+          <t>Hydropower_reservoir_medium</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-3</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>2576.763</v>
+        <v>40.207</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1132,20 +1132,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
+          <t>Nuclear</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="D19" t="n">
-        <v>2189.635</v>
+        <v>484</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0.94999999975</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>3095.902</v>
+        <v>2400.537</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>2400.537</v>
+        <v>1527.304</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>2115.873</v>
+        <v>588.5690000000001</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1291,7 +1291,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>2273.5</v>
+        <v>633.914</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -1322,14 +1322,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WTG_onshore</t>
+          <t>PV_utility_systems</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>6010.876999999999</v>
+        <v>498.2</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1360,20 +1360,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nuclear</t>
+          <t>PV_utility_systems</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>484</v>
+        <v>492.642</v>
       </c>
       <c r="E25" t="n">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.94999999975</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1398,14 +1398,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WTG_offshore</t>
+          <t>PV_utility_systems</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>759.914</v>
+        <v>648.744</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1440,10 +1440,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>759.914</v>
+        <v>203.696</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1478,10 +1478,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>730.973</v>
+        <v>758.994</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1512,14 +1512,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WTG_offshore</t>
+          <t>WTG_onshore</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1695.31</v>
+        <v>341.774</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1541,6 +1541,842 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>425.903</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>551.907</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>659.4730000000001</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>11</v>
+      </c>
+      <c r="D33" t="n">
+        <v>638.6619999999999</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>12</v>
+      </c>
+      <c r="D34" t="n">
+        <v>317.364</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>13</v>
+      </c>
+      <c r="D35" t="n">
+        <v>285.598</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>14</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1016.313</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>33</v>
+      </c>
+      <c r="D37" t="n">
+        <v>643</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.387651632970451</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>45</v>
+      </c>
+      <c r="D38" t="n">
+        <v>460</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Biomass_CHP_wood_pellets_PH</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>14</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.767999999999997</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.742009132420091</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CCGT_CHP_backpressure_DH</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>444.2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5844079243583972</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.8917154434939217</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CCGT_CHP_backpressure_DH</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>11</v>
+      </c>
+      <c r="D41" t="n">
+        <v>862.64</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.4099999999999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CCGT_CHP_backpressure_DH</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>12</v>
+      </c>
+      <c r="D42" t="n">
+        <v>721</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.4099999999999999</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CCGT_CHP_backpressure_DH</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>13</v>
+      </c>
+      <c r="D43" t="n">
+        <v>641</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CCGT_CHP_backpressure_DH</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>14</v>
+      </c>
+      <c r="D44" t="n">
+        <v>739.293</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.2941889890070649</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.8515333832623808</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CCGT_CHP_backpressure_DH</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>19</v>
+      </c>
+      <c r="D45" t="n">
+        <v>541.817</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.4088526199805469</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.804654952562272</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CCGT_CHP_backpressure_DH</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>20</v>
+      </c>
+      <c r="D46" t="n">
+        <v>557.934</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.4158746375019268</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9035726544813641</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CCGT_CHP_backpressure_DH</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>22</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1040.24</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.3575534876566946</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.90748031496063</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CCGT_CHP_backpressure_DH</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>23</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1101.962</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.4374676880872479</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.8645218458763383</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CCGT_CHP_backpressure_DH</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>28</v>
+      </c>
+      <c r="D49" t="n">
+        <v>655.18101</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.352119683841264</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8390035408294167</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CCGT_CHP_backpressure_DH</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>385.096</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.3745767289195421</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.8420443214159588</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CCGT_CHP_backpressure_DH</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>32</v>
+      </c>
+      <c r="D51" t="n">
+        <v>811.6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.3692304313085264</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.8862000985707243</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Producer1</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/NL_datapower_plants.xlsx
+++ b/data/NL_datapower_plants.xlsx
@@ -486,20 +486,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coal PSC</t>
+          <t>Biomass_CHP_wood_pellets_DH</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>790</v>
+        <v>631</v>
       </c>
       <c r="E2" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>2640</v>
+        <v>790</v>
       </c>
       <c r="E3" t="n">
         <v>0.46</v>
@@ -546,7 +546,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -566,13 +566,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>630</v>
+        <v>2640</v>
       </c>
       <c r="E4" t="n">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="F4" t="n">
         <v>0.9</v>
@@ -584,7 +584,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E5" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -660,7 +660,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -774,7 +774,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -812,7 +812,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -850,7 +850,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -888,7 +888,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -926,7 +926,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -964,7 +964,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Producer1</t>
+          <t>ProducerNL</t>
         </is>
       </c>
       <c r="I51" t="n">
